--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_103.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_103.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84555-Reviews-The_Carlyle_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>659</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Carlyle-Inn.h3394.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_103.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_103.xlsx
@@ -9345,7 +9345,7 @@
         <v>29564</v>
       </c>
       <c r="B3" t="n">
-        <v>130179</v>
+        <v>160892</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -9495,7 +9495,7 @@
         <v>29564</v>
       </c>
       <c r="B5" t="n">
-        <v>130180</v>
+        <v>160893</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -9560,7 +9560,7 @@
         <v>29564</v>
       </c>
       <c r="B6" t="n">
-        <v>130181</v>
+        <v>160894</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -9635,7 +9635,7 @@
         <v>29564</v>
       </c>
       <c r="B7" t="n">
-        <v>130182</v>
+        <v>160895</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -9781,7 +9781,7 @@
         <v>29564</v>
       </c>
       <c r="B9" t="n">
-        <v>130183</v>
+        <v>160896</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -9856,7 +9856,7 @@
         <v>29564</v>
       </c>
       <c r="B10" t="n">
-        <v>130184</v>
+        <v>160897</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -9931,7 +9931,7 @@
         <v>29564</v>
       </c>
       <c r="B11" t="n">
-        <v>130185</v>
+        <v>160898</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -9996,7 +9996,7 @@
         <v>29564</v>
       </c>
       <c r="B12" t="n">
-        <v>130186</v>
+        <v>160899</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -10071,7 +10071,7 @@
         <v>29564</v>
       </c>
       <c r="B13" t="n">
-        <v>130187</v>
+        <v>160900</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -10146,7 +10146,7 @@
         <v>29564</v>
       </c>
       <c r="B14" t="n">
-        <v>130188</v>
+        <v>160901</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -10215,7 +10215,7 @@
         <v>29564</v>
       </c>
       <c r="B15" t="n">
-        <v>130189</v>
+        <v>160902</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -10290,7 +10290,7 @@
         <v>29564</v>
       </c>
       <c r="B16" t="n">
-        <v>130190</v>
+        <v>160903</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -10440,7 +10440,7 @@
         <v>29564</v>
       </c>
       <c r="B18" t="n">
-        <v>130191</v>
+        <v>160904</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -10515,7 +10515,7 @@
         <v>29564</v>
       </c>
       <c r="B19" t="n">
-        <v>130192</v>
+        <v>160905</v>
       </c>
       <c r="C19" t="s">
         <v>190</v>
@@ -10590,7 +10590,7 @@
         <v>29564</v>
       </c>
       <c r="B20" t="n">
-        <v>130193</v>
+        <v>160906</v>
       </c>
       <c r="C20" t="s">
         <v>199</v>
@@ -10740,7 +10740,7 @@
         <v>29564</v>
       </c>
       <c r="B22" t="n">
-        <v>130194</v>
+        <v>160907</v>
       </c>
       <c r="C22" t="s">
         <v>214</v>
@@ -10805,7 +10805,7 @@
         <v>29564</v>
       </c>
       <c r="B23" t="n">
-        <v>130195</v>
+        <v>160908</v>
       </c>
       <c r="C23" t="s">
         <v>223</v>
@@ -10880,7 +10880,7 @@
         <v>29564</v>
       </c>
       <c r="B24" t="n">
-        <v>130196</v>
+        <v>160909</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
@@ -10955,7 +10955,7 @@
         <v>29564</v>
       </c>
       <c r="B25" t="n">
-        <v>130197</v>
+        <v>160910</v>
       </c>
       <c r="C25" t="s">
         <v>241</v>
@@ -11020,7 +11020,7 @@
         <v>29564</v>
       </c>
       <c r="B26" t="n">
-        <v>130198</v>
+        <v>160911</v>
       </c>
       <c r="C26" t="s">
         <v>247</v>
@@ -11091,7 +11091,7 @@
         <v>29564</v>
       </c>
       <c r="B27" t="n">
-        <v>130199</v>
+        <v>160912</v>
       </c>
       <c r="C27" t="s">
         <v>257</v>
@@ -11166,7 +11166,7 @@
         <v>29564</v>
       </c>
       <c r="B28" t="n">
-        <v>130200</v>
+        <v>160913</v>
       </c>
       <c r="C28" t="s">
         <v>266</v>
@@ -11231,7 +11231,7 @@
         <v>29564</v>
       </c>
       <c r="B29" t="n">
-        <v>130201</v>
+        <v>160914</v>
       </c>
       <c r="C29" t="s">
         <v>273</v>
@@ -11306,7 +11306,7 @@
         <v>29564</v>
       </c>
       <c r="B30" t="n">
-        <v>130202</v>
+        <v>160915</v>
       </c>
       <c r="C30" t="s">
         <v>282</v>
@@ -11375,7 +11375,7 @@
         <v>29564</v>
       </c>
       <c r="B31" t="n">
-        <v>130203</v>
+        <v>160916</v>
       </c>
       <c r="C31" t="s">
         <v>289</v>
@@ -11525,7 +11525,7 @@
         <v>29564</v>
       </c>
       <c r="B33" t="n">
-        <v>130204</v>
+        <v>160917</v>
       </c>
       <c r="C33" t="s">
         <v>304</v>
@@ -11665,7 +11665,7 @@
         <v>29564</v>
       </c>
       <c r="B35" t="n">
-        <v>130205</v>
+        <v>160918</v>
       </c>
       <c r="C35" t="s">
         <v>321</v>
@@ -11797,7 +11797,7 @@
         <v>29564</v>
       </c>
       <c r="B37" t="n">
-        <v>130206</v>
+        <v>160919</v>
       </c>
       <c r="C37" t="s">
         <v>339</v>
@@ -11872,7 +11872,7 @@
         <v>29564</v>
       </c>
       <c r="B38" t="n">
-        <v>130207</v>
+        <v>160920</v>
       </c>
       <c r="C38" t="s">
         <v>345</v>
@@ -11947,7 +11947,7 @@
         <v>29564</v>
       </c>
       <c r="B39" t="n">
-        <v>130208</v>
+        <v>160921</v>
       </c>
       <c r="C39" t="s">
         <v>355</v>
@@ -12022,7 +12022,7 @@
         <v>29564</v>
       </c>
       <c r="B40" t="n">
-        <v>130209</v>
+        <v>160922</v>
       </c>
       <c r="C40" t="s">
         <v>362</v>
@@ -12097,7 +12097,7 @@
         <v>29564</v>
       </c>
       <c r="B41" t="n">
-        <v>130210</v>
+        <v>160923</v>
       </c>
       <c r="C41" t="s">
         <v>369</v>
@@ -12243,7 +12243,7 @@
         <v>29564</v>
       </c>
       <c r="B43" t="n">
-        <v>130211</v>
+        <v>160924</v>
       </c>
       <c r="C43" t="s">
         <v>387</v>
@@ -12308,7 +12308,7 @@
         <v>29564</v>
       </c>
       <c r="B44" t="n">
-        <v>130212</v>
+        <v>130205</v>
       </c>
       <c r="C44" t="s">
         <v>396</v>
@@ -12383,7 +12383,7 @@
         <v>29564</v>
       </c>
       <c r="B45" t="n">
-        <v>130213</v>
+        <v>160925</v>
       </c>
       <c r="C45" t="s">
         <v>405</v>
@@ -12458,7 +12458,7 @@
         <v>29564</v>
       </c>
       <c r="B46" t="n">
-        <v>130214</v>
+        <v>160926</v>
       </c>
       <c r="C46" t="s">
         <v>413</v>
@@ -12608,7 +12608,7 @@
         <v>29564</v>
       </c>
       <c r="B48" t="n">
-        <v>130215</v>
+        <v>160927</v>
       </c>
       <c r="C48" t="s">
         <v>427</v>
@@ -12677,7 +12677,7 @@
         <v>29564</v>
       </c>
       <c r="B49" t="n">
-        <v>130216</v>
+        <v>160928</v>
       </c>
       <c r="C49" t="s">
         <v>434</v>
@@ -12752,7 +12752,7 @@
         <v>29564</v>
       </c>
       <c r="B50" t="n">
-        <v>130217</v>
+        <v>160929</v>
       </c>
       <c r="C50" t="s">
         <v>443</v>
@@ -12827,7 +12827,7 @@
         <v>29564</v>
       </c>
       <c r="B51" t="n">
-        <v>130218</v>
+        <v>160930</v>
       </c>
       <c r="C51" t="s">
         <v>452</v>
@@ -12975,7 +12975,7 @@
         <v>29564</v>
       </c>
       <c r="B53" t="n">
-        <v>130219</v>
+        <v>160931</v>
       </c>
       <c r="C53" t="s">
         <v>468</v>
@@ -13044,7 +13044,7 @@
         <v>29564</v>
       </c>
       <c r="B54" t="n">
-        <v>130220</v>
+        <v>160932</v>
       </c>
       <c r="C54" t="s">
         <v>477</v>
@@ -13119,7 +13119,7 @@
         <v>29564</v>
       </c>
       <c r="B55" t="n">
-        <v>130221</v>
+        <v>160933</v>
       </c>
       <c r="C55" t="s">
         <v>487</v>
@@ -13194,7 +13194,7 @@
         <v>29564</v>
       </c>
       <c r="B56" t="n">
-        <v>130222</v>
+        <v>160934</v>
       </c>
       <c r="C56" t="s">
         <v>494</v>
@@ -13269,7 +13269,7 @@
         <v>29564</v>
       </c>
       <c r="B57" t="n">
-        <v>130223</v>
+        <v>160935</v>
       </c>
       <c r="C57" t="s">
         <v>503</v>
@@ -13344,7 +13344,7 @@
         <v>29564</v>
       </c>
       <c r="B58" t="n">
-        <v>130224</v>
+        <v>160936</v>
       </c>
       <c r="C58" t="s">
         <v>509</v>
@@ -13419,7 +13419,7 @@
         <v>29564</v>
       </c>
       <c r="B59" t="n">
-        <v>130225</v>
+        <v>160937</v>
       </c>
       <c r="C59" t="s">
         <v>518</v>
@@ -13490,7 +13490,7 @@
         <v>29564</v>
       </c>
       <c r="B60" t="n">
-        <v>130226</v>
+        <v>160938</v>
       </c>
       <c r="C60" t="s">
         <v>527</v>
@@ -13565,7 +13565,7 @@
         <v>29564</v>
       </c>
       <c r="B61" t="n">
-        <v>130227</v>
+        <v>160939</v>
       </c>
       <c r="C61" t="s">
         <v>536</v>
@@ -13640,7 +13640,7 @@
         <v>29564</v>
       </c>
       <c r="B62" t="n">
-        <v>130228</v>
+        <v>160940</v>
       </c>
       <c r="C62" t="s">
         <v>545</v>
@@ -13715,7 +13715,7 @@
         <v>29564</v>
       </c>
       <c r="B63" t="n">
-        <v>130229</v>
+        <v>160941</v>
       </c>
       <c r="C63" t="s">
         <v>555</v>
@@ -13790,7 +13790,7 @@
         <v>29564</v>
       </c>
       <c r="B64" t="n">
-        <v>130230</v>
+        <v>130193</v>
       </c>
       <c r="C64" t="s">
         <v>562</v>
@@ -13865,7 +13865,7 @@
         <v>29564</v>
       </c>
       <c r="B65" t="n">
-        <v>130231</v>
+        <v>160942</v>
       </c>
       <c r="C65" t="s">
         <v>568</v>
@@ -13940,7 +13940,7 @@
         <v>29564</v>
       </c>
       <c r="B66" t="n">
-        <v>130232</v>
+        <v>160943</v>
       </c>
       <c r="C66" t="s">
         <v>577</v>
@@ -14015,7 +14015,7 @@
         <v>29564</v>
       </c>
       <c r="B67" t="n">
-        <v>130233</v>
+        <v>160944</v>
       </c>
       <c r="C67" t="s">
         <v>584</v>
@@ -14090,7 +14090,7 @@
         <v>29564</v>
       </c>
       <c r="B68" t="n">
-        <v>130234</v>
+        <v>160945</v>
       </c>
       <c r="C68" t="s">
         <v>591</v>
@@ -14165,7 +14165,7 @@
         <v>29564</v>
       </c>
       <c r="B69" t="n">
-        <v>130235</v>
+        <v>160946</v>
       </c>
       <c r="C69" t="s">
         <v>600</v>
@@ -14240,7 +14240,7 @@
         <v>29564</v>
       </c>
       <c r="B70" t="n">
-        <v>130236</v>
+        <v>160947</v>
       </c>
       <c r="C70" t="s">
         <v>606</v>
@@ -14315,7 +14315,7 @@
         <v>29564</v>
       </c>
       <c r="B71" t="n">
-        <v>130237</v>
+        <v>160948</v>
       </c>
       <c r="C71" t="s">
         <v>613</v>
@@ -14390,7 +14390,7 @@
         <v>29564</v>
       </c>
       <c r="B72" t="n">
-        <v>130238</v>
+        <v>160949</v>
       </c>
       <c r="C72" t="s">
         <v>622</v>
@@ -14465,7 +14465,7 @@
         <v>29564</v>
       </c>
       <c r="B73" t="n">
-        <v>130239</v>
+        <v>160950</v>
       </c>
       <c r="C73" t="s">
         <v>632</v>
@@ -14615,7 +14615,7 @@
         <v>29564</v>
       </c>
       <c r="B75" t="n">
-        <v>130240</v>
+        <v>160951</v>
       </c>
       <c r="C75" t="s">
         <v>648</v>
@@ -14690,7 +14690,7 @@
         <v>29564</v>
       </c>
       <c r="B76" t="n">
-        <v>130241</v>
+        <v>160952</v>
       </c>
       <c r="C76" t="s">
         <v>657</v>
@@ -14840,7 +14840,7 @@
         <v>29564</v>
       </c>
       <c r="B78" t="n">
-        <v>130242</v>
+        <v>160953</v>
       </c>
       <c r="C78" t="s">
         <v>671</v>
@@ -14990,7 +14990,7 @@
         <v>29564</v>
       </c>
       <c r="B80" t="n">
-        <v>130243</v>
+        <v>160954</v>
       </c>
       <c r="C80" t="s">
         <v>684</v>
@@ -15065,7 +15065,7 @@
         <v>29564</v>
       </c>
       <c r="B81" t="n">
-        <v>130244</v>
+        <v>160955</v>
       </c>
       <c r="C81" t="s">
         <v>694</v>
@@ -15138,7 +15138,7 @@
         <v>29564</v>
       </c>
       <c r="B82" t="n">
-        <v>130245</v>
+        <v>160956</v>
       </c>
       <c r="C82" t="s">
         <v>700</v>
@@ -15213,7 +15213,7 @@
         <v>29564</v>
       </c>
       <c r="B83" t="n">
-        <v>130246</v>
+        <v>160957</v>
       </c>
       <c r="C83" t="s">
         <v>706</v>
@@ -15288,7 +15288,7 @@
         <v>29564</v>
       </c>
       <c r="B84" t="n">
-        <v>130247</v>
+        <v>160958</v>
       </c>
       <c r="C84" t="s">
         <v>715</v>
@@ -15363,7 +15363,7 @@
         <v>29564</v>
       </c>
       <c r="B85" t="n">
-        <v>130248</v>
+        <v>160959</v>
       </c>
       <c r="C85" t="s">
         <v>724</v>
@@ -15438,7 +15438,7 @@
         <v>29564</v>
       </c>
       <c r="B86" t="n">
-        <v>130249</v>
+        <v>160960</v>
       </c>
       <c r="C86" t="s">
         <v>733</v>
@@ -15513,7 +15513,7 @@
         <v>29564</v>
       </c>
       <c r="B87" t="n">
-        <v>130250</v>
+        <v>160961</v>
       </c>
       <c r="C87" t="s">
         <v>742</v>
@@ -15588,7 +15588,7 @@
         <v>29564</v>
       </c>
       <c r="B88" t="n">
-        <v>130251</v>
+        <v>160962</v>
       </c>
       <c r="C88" t="s">
         <v>748</v>
@@ -15663,7 +15663,7 @@
         <v>29564</v>
       </c>
       <c r="B89" t="n">
-        <v>130252</v>
+        <v>160963</v>
       </c>
       <c r="C89" t="s">
         <v>755</v>
@@ -15738,7 +15738,7 @@
         <v>29564</v>
       </c>
       <c r="B90" t="n">
-        <v>130253</v>
+        <v>160964</v>
       </c>
       <c r="C90" t="s">
         <v>765</v>
@@ -15813,7 +15813,7 @@
         <v>29564</v>
       </c>
       <c r="B91" t="n">
-        <v>130254</v>
+        <v>160965</v>
       </c>
       <c r="C91" t="s">
         <v>774</v>
@@ -15963,7 +15963,7 @@
         <v>29564</v>
       </c>
       <c r="B93" t="n">
-        <v>130255</v>
+        <v>160966</v>
       </c>
       <c r="C93" t="s">
         <v>790</v>
@@ -16038,7 +16038,7 @@
         <v>29564</v>
       </c>
       <c r="B94" t="n">
-        <v>130256</v>
+        <v>160967</v>
       </c>
       <c r="C94" t="s">
         <v>799</v>
@@ -16113,7 +16113,7 @@
         <v>29564</v>
       </c>
       <c r="B95" t="n">
-        <v>130257</v>
+        <v>160968</v>
       </c>
       <c r="C95" t="s">
         <v>806</v>
@@ -16188,7 +16188,7 @@
         <v>29564</v>
       </c>
       <c r="B96" t="n">
-        <v>130258</v>
+        <v>160969</v>
       </c>
       <c r="C96" t="s">
         <v>815</v>
@@ -16263,7 +16263,7 @@
         <v>29564</v>
       </c>
       <c r="B97" t="n">
-        <v>130229</v>
+        <v>130193</v>
       </c>
       <c r="C97" t="s">
         <v>562</v>
@@ -16338,7 +16338,7 @@
         <v>29564</v>
       </c>
       <c r="B98" t="n">
-        <v>130259</v>
+        <v>160970</v>
       </c>
       <c r="C98" t="s">
         <v>828</v>
@@ -16413,7 +16413,7 @@
         <v>29564</v>
       </c>
       <c r="B99" t="n">
-        <v>130260</v>
+        <v>160971</v>
       </c>
       <c r="C99" t="s">
         <v>837</v>
@@ -16488,7 +16488,7 @@
         <v>29564</v>
       </c>
       <c r="B100" t="n">
-        <v>130261</v>
+        <v>160972</v>
       </c>
       <c r="C100" t="s">
         <v>843</v>
@@ -16563,7 +16563,7 @@
         <v>29564</v>
       </c>
       <c r="B101" t="n">
-        <v>130262</v>
+        <v>160973</v>
       </c>
       <c r="C101" t="s">
         <v>850</v>
@@ -16638,7 +16638,7 @@
         <v>29564</v>
       </c>
       <c r="B102" t="n">
-        <v>130263</v>
+        <v>160974</v>
       </c>
       <c r="C102" t="s">
         <v>856</v>
@@ -16859,7 +16859,7 @@
         <v>29564</v>
       </c>
       <c r="B105" t="n">
-        <v>130264</v>
+        <v>160975</v>
       </c>
       <c r="C105" t="s">
         <v>880</v>
@@ -16934,7 +16934,7 @@
         <v>29564</v>
       </c>
       <c r="B106" t="n">
-        <v>130265</v>
+        <v>160976</v>
       </c>
       <c r="C106" t="s">
         <v>887</v>
@@ -17009,7 +17009,7 @@
         <v>29564</v>
       </c>
       <c r="B107" t="n">
-        <v>130266</v>
+        <v>160977</v>
       </c>
       <c r="C107" t="s">
         <v>893</v>
@@ -17084,7 +17084,7 @@
         <v>29564</v>
       </c>
       <c r="B108" t="n">
-        <v>130267</v>
+        <v>160978</v>
       </c>
       <c r="C108" t="s">
         <v>902</v>
@@ -17230,7 +17230,7 @@
         <v>29564</v>
       </c>
       <c r="B110" t="n">
-        <v>130268</v>
+        <v>130206</v>
       </c>
       <c r="C110" t="s">
         <v>918</v>
@@ -17305,7 +17305,7 @@
         <v>29564</v>
       </c>
       <c r="B111" t="n">
-        <v>130269</v>
+        <v>160979</v>
       </c>
       <c r="C111" t="s">
         <v>928</v>
@@ -17370,7 +17370,7 @@
         <v>29564</v>
       </c>
       <c r="B112" t="n">
-        <v>130270</v>
+        <v>160980</v>
       </c>
       <c r="C112" t="s">
         <v>935</v>
@@ -17520,7 +17520,7 @@
         <v>29564</v>
       </c>
       <c r="B114" t="n">
-        <v>130271</v>
+        <v>160981</v>
       </c>
       <c r="C114" t="s">
         <v>950</v>
@@ -17739,7 +17739,7 @@
         <v>29564</v>
       </c>
       <c r="B117" t="n">
-        <v>130272</v>
+        <v>160982</v>
       </c>
       <c r="C117" t="s">
         <v>972</v>
@@ -17814,7 +17814,7 @@
         <v>29564</v>
       </c>
       <c r="B118" t="n">
-        <v>130273</v>
+        <v>160983</v>
       </c>
       <c r="C118" t="s">
         <v>981</v>
@@ -17889,7 +17889,7 @@
         <v>29564</v>
       </c>
       <c r="B119" t="n">
-        <v>130274</v>
+        <v>160984</v>
       </c>
       <c r="C119" t="s">
         <v>990</v>
@@ -18110,7 +18110,7 @@
         <v>29564</v>
       </c>
       <c r="B122" t="n">
-        <v>130275</v>
+        <v>160985</v>
       </c>
       <c r="C122" t="s">
         <v>1015</v>
@@ -18175,7 +18175,7 @@
         <v>29564</v>
       </c>
       <c r="B123" t="n">
-        <v>130276</v>
+        <v>160986</v>
       </c>
       <c r="C123" t="s">
         <v>1025</v>
@@ -18250,7 +18250,7 @@
         <v>29564</v>
       </c>
       <c r="B124" t="n">
-        <v>130277</v>
+        <v>160987</v>
       </c>
       <c r="C124" t="s">
         <v>1032</v>
@@ -18325,7 +18325,7 @@
         <v>29564</v>
       </c>
       <c r="B125" t="n">
-        <v>130278</v>
+        <v>160988</v>
       </c>
       <c r="C125" t="s">
         <v>1041</v>
@@ -18390,7 +18390,7 @@
         <v>29564</v>
       </c>
       <c r="B126" t="n">
-        <v>130279</v>
+        <v>160989</v>
       </c>
       <c r="C126" t="s">
         <v>1050</v>
@@ -18540,7 +18540,7 @@
         <v>29564</v>
       </c>
       <c r="B128" t="n">
-        <v>130280</v>
+        <v>160990</v>
       </c>
       <c r="C128" t="s">
         <v>1065</v>
@@ -18611,7 +18611,7 @@
         <v>29564</v>
       </c>
       <c r="B129" t="n">
-        <v>130281</v>
+        <v>160991</v>
       </c>
       <c r="C129" t="s">
         <v>1072</v>
@@ -18686,7 +18686,7 @@
         <v>29564</v>
       </c>
       <c r="B130" t="n">
-        <v>130282</v>
+        <v>160992</v>
       </c>
       <c r="C130" t="s">
         <v>1081</v>
@@ -18761,7 +18761,7 @@
         <v>29564</v>
       </c>
       <c r="B131" t="n">
-        <v>130283</v>
+        <v>160993</v>
       </c>
       <c r="C131" t="s">
         <v>1090</v>
@@ -18836,7 +18836,7 @@
         <v>29564</v>
       </c>
       <c r="B132" t="n">
-        <v>130284</v>
+        <v>160994</v>
       </c>
       <c r="C132" t="s">
         <v>1099</v>
@@ -18911,7 +18911,7 @@
         <v>29564</v>
       </c>
       <c r="B133" t="n">
-        <v>130285</v>
+        <v>160995</v>
       </c>
       <c r="C133" t="s">
         <v>1108</v>
@@ -18982,7 +18982,7 @@
         <v>29564</v>
       </c>
       <c r="B134" t="n">
-        <v>130286</v>
+        <v>160996</v>
       </c>
       <c r="C134" t="s">
         <v>1115</v>
@@ -19126,7 +19126,7 @@
         <v>29564</v>
       </c>
       <c r="B136" t="n">
-        <v>130287</v>
+        <v>160997</v>
       </c>
       <c r="C136" t="s">
         <v>1132</v>
@@ -19201,7 +19201,7 @@
         <v>29564</v>
       </c>
       <c r="B137" t="n">
-        <v>130288</v>
+        <v>160998</v>
       </c>
       <c r="C137" t="s">
         <v>1140</v>
@@ -19351,7 +19351,7 @@
         <v>29564</v>
       </c>
       <c r="B139" t="n">
-        <v>130289</v>
+        <v>160999</v>
       </c>
       <c r="C139" t="s">
         <v>1157</v>
@@ -19426,7 +19426,7 @@
         <v>29564</v>
       </c>
       <c r="B140" t="n">
-        <v>130290</v>
+        <v>161000</v>
       </c>
       <c r="C140" t="s">
         <v>1164</v>
@@ -19501,7 +19501,7 @@
         <v>29564</v>
       </c>
       <c r="B141" t="n">
-        <v>130291</v>
+        <v>161001</v>
       </c>
       <c r="C141" t="s">
         <v>1173</v>
@@ -19576,7 +19576,7 @@
         <v>29564</v>
       </c>
       <c r="B142" t="n">
-        <v>130211</v>
+        <v>130205</v>
       </c>
       <c r="C142" t="s">
         <v>396</v>
@@ -19651,7 +19651,7 @@
         <v>29564</v>
       </c>
       <c r="B143" t="n">
-        <v>130292</v>
+        <v>161002</v>
       </c>
       <c r="C143" t="s">
         <v>1187</v>
@@ -19726,7 +19726,7 @@
         <v>29564</v>
       </c>
       <c r="B144" t="n">
-        <v>130293</v>
+        <v>161003</v>
       </c>
       <c r="C144" t="s">
         <v>1194</v>
@@ -19801,7 +19801,7 @@
         <v>29564</v>
       </c>
       <c r="B145" t="n">
-        <v>130267</v>
+        <v>130206</v>
       </c>
       <c r="C145" t="s">
         <v>918</v>
@@ -19951,7 +19951,7 @@
         <v>29564</v>
       </c>
       <c r="B147" t="n">
-        <v>130294</v>
+        <v>161004</v>
       </c>
       <c r="C147" t="s">
         <v>1216</v>
@@ -20101,7 +20101,7 @@
         <v>29564</v>
       </c>
       <c r="B149" t="n">
-        <v>130295</v>
+        <v>161005</v>
       </c>
       <c r="C149" t="s">
         <v>1229</v>
@@ -20166,7 +20166,7 @@
         <v>29564</v>
       </c>
       <c r="B150" t="n">
-        <v>130296</v>
+        <v>161006</v>
       </c>
       <c r="C150" t="s">
         <v>1236</v>
@@ -20241,7 +20241,7 @@
         <v>29564</v>
       </c>
       <c r="B151" t="n">
-        <v>130297</v>
+        <v>161007</v>
       </c>
       <c r="C151" t="s">
         <v>1243</v>
@@ -20316,7 +20316,7 @@
         <v>29564</v>
       </c>
       <c r="B152" t="n">
-        <v>130298</v>
+        <v>161008</v>
       </c>
       <c r="C152" t="s">
         <v>1250</v>
@@ -20391,7 +20391,7 @@
         <v>29564</v>
       </c>
       <c r="B153" t="n">
-        <v>130299</v>
+        <v>161009</v>
       </c>
       <c r="C153" t="s">
         <v>1258</v>
@@ -20462,7 +20462,7 @@
         <v>29564</v>
       </c>
       <c r="B154" t="n">
-        <v>130300</v>
+        <v>161010</v>
       </c>
       <c r="C154" t="s">
         <v>1264</v>
@@ -20537,7 +20537,7 @@
         <v>29564</v>
       </c>
       <c r="B155" t="n">
-        <v>130301</v>
+        <v>161011</v>
       </c>
       <c r="C155" t="s">
         <v>1273</v>
@@ -20606,7 +20606,7 @@
         <v>29564</v>
       </c>
       <c r="B156" t="n">
-        <v>130302</v>
+        <v>161012</v>
       </c>
       <c r="C156" t="s">
         <v>1281</v>
@@ -20681,7 +20681,7 @@
         <v>29564</v>
       </c>
       <c r="B157" t="n">
-        <v>130303</v>
+        <v>161013</v>
       </c>
       <c r="C157" t="s">
         <v>1288</v>
@@ -20746,7 +20746,7 @@
         <v>29564</v>
       </c>
       <c r="B158" t="n">
-        <v>130304</v>
+        <v>161014</v>
       </c>
       <c r="C158" t="s">
         <v>1295</v>
@@ -20896,7 +20896,7 @@
         <v>29564</v>
       </c>
       <c r="B160" t="n">
-        <v>130305</v>
+        <v>161015</v>
       </c>
       <c r="C160" t="s">
         <v>1311</v>
@@ -20971,7 +20971,7 @@
         <v>29564</v>
       </c>
       <c r="B161" t="n">
-        <v>130306</v>
+        <v>161016</v>
       </c>
       <c r="C161" t="s">
         <v>1318</v>
@@ -21046,7 +21046,7 @@
         <v>29564</v>
       </c>
       <c r="B162" t="n">
-        <v>130307</v>
+        <v>161017</v>
       </c>
       <c r="C162" t="s">
         <v>1326</v>
@@ -21111,7 +21111,7 @@
         <v>29564</v>
       </c>
       <c r="B163" t="n">
-        <v>130308</v>
+        <v>161018</v>
       </c>
       <c r="C163" t="s">
         <v>1335</v>
@@ -21186,7 +21186,7 @@
         <v>29564</v>
       </c>
       <c r="B164" t="n">
-        <v>130309</v>
+        <v>161019</v>
       </c>
       <c r="C164" t="s">
         <v>1344</v>
@@ -21255,7 +21255,7 @@
         <v>29564</v>
       </c>
       <c r="B165" t="n">
-        <v>130310</v>
+        <v>161020</v>
       </c>
       <c r="C165" t="s">
         <v>1350</v>
@@ -21320,7 +21320,7 @@
         <v>29564</v>
       </c>
       <c r="B166" t="n">
-        <v>130311</v>
+        <v>161021</v>
       </c>
       <c r="C166" t="s">
         <v>1357</v>
@@ -21381,7 +21381,7 @@
         <v>29564</v>
       </c>
       <c r="B167" t="n">
-        <v>130312</v>
+        <v>161022</v>
       </c>
       <c r="C167" t="s">
         <v>1364</v>
@@ -21515,7 +21515,7 @@
         <v>29564</v>
       </c>
       <c r="B169" t="n">
-        <v>130313</v>
+        <v>161023</v>
       </c>
       <c r="C169" t="s">
         <v>1381</v>
@@ -21584,7 +21584,7 @@
         <v>29564</v>
       </c>
       <c r="B170" t="n">
-        <v>130314</v>
+        <v>161024</v>
       </c>
       <c r="C170" t="s">
         <v>1388</v>
@@ -21714,7 +21714,7 @@
         <v>29564</v>
       </c>
       <c r="B172" t="n">
-        <v>130315</v>
+        <v>161025</v>
       </c>
       <c r="C172" t="s">
         <v>1403</v>
@@ -21854,7 +21854,7 @@
         <v>29564</v>
       </c>
       <c r="B174" t="n">
-        <v>130316</v>
+        <v>161026</v>
       </c>
       <c r="C174" t="s">
         <v>1419</v>
@@ -21919,7 +21919,7 @@
         <v>29564</v>
       </c>
       <c r="B175" t="n">
-        <v>130317</v>
+        <v>161027</v>
       </c>
       <c r="C175" t="s">
         <v>1428</v>
@@ -22053,7 +22053,7 @@
         <v>29564</v>
       </c>
       <c r="B177" t="n">
-        <v>130318</v>
+        <v>161028</v>
       </c>
       <c r="C177" t="s">
         <v>1447</v>
@@ -22124,7 +22124,7 @@
         <v>29564</v>
       </c>
       <c r="B178" t="n">
-        <v>130319</v>
+        <v>161029</v>
       </c>
       <c r="C178" t="s">
         <v>1456</v>
@@ -22193,7 +22193,7 @@
         <v>29564</v>
       </c>
       <c r="B179" t="n">
-        <v>130320</v>
+        <v>161030</v>
       </c>
       <c r="C179" t="s">
         <v>1465</v>
@@ -22323,7 +22323,7 @@
         <v>29564</v>
       </c>
       <c r="B181" t="n">
-        <v>130321</v>
+        <v>161031</v>
       </c>
       <c r="C181" t="s">
         <v>1482</v>
@@ -22392,7 +22392,7 @@
         <v>29564</v>
       </c>
       <c r="B182" t="n">
-        <v>130322</v>
+        <v>161032</v>
       </c>
       <c r="C182" t="s">
         <v>1490</v>
@@ -22457,7 +22457,7 @@
         <v>29564</v>
       </c>
       <c r="B183" t="n">
-        <v>130323</v>
+        <v>161033</v>
       </c>
       <c r="C183" t="s">
         <v>1500</v>
@@ -22522,7 +22522,7 @@
         <v>29564</v>
       </c>
       <c r="B184" t="n">
-        <v>130324</v>
+        <v>161034</v>
       </c>
       <c r="C184" t="s">
         <v>1509</v>
@@ -22664,7 +22664,7 @@
         <v>29564</v>
       </c>
       <c r="B186" t="n">
-        <v>130325</v>
+        <v>161035</v>
       </c>
       <c r="C186" t="s">
         <v>1525</v>
@@ -22725,7 +22725,7 @@
         <v>29564</v>
       </c>
       <c r="B187" t="n">
-        <v>130326</v>
+        <v>161036</v>
       </c>
       <c r="C187" t="s">
         <v>1534</v>
@@ -22790,7 +22790,7 @@
         <v>29564</v>
       </c>
       <c r="B188" t="n">
-        <v>130327</v>
+        <v>161037</v>
       </c>
       <c r="C188" t="s">
         <v>1541</v>
@@ -22861,7 +22861,7 @@
         <v>29564</v>
       </c>
       <c r="B189" t="n">
-        <v>130328</v>
+        <v>161038</v>
       </c>
       <c r="C189" t="s">
         <v>1551</v>
@@ -22930,7 +22930,7 @@
         <v>29564</v>
       </c>
       <c r="B190" t="n">
-        <v>130329</v>
+        <v>130221</v>
       </c>
       <c r="C190" t="s">
         <v>1557</v>
@@ -23192,7 +23192,7 @@
         <v>29564</v>
       </c>
       <c r="B194" t="n">
-        <v>130330</v>
+        <v>161039</v>
       </c>
       <c r="C194" t="s">
         <v>1594</v>
@@ -23330,7 +23330,7 @@
         <v>29564</v>
       </c>
       <c r="B196" t="n">
-        <v>130331</v>
+        <v>161040</v>
       </c>
       <c r="C196" t="s">
         <v>1613</v>
@@ -23395,7 +23395,7 @@
         <v>29564</v>
       </c>
       <c r="B197" t="n">
-        <v>130332</v>
+        <v>161041</v>
       </c>
       <c r="C197" t="s">
         <v>1622</v>
@@ -23464,7 +23464,7 @@
         <v>29564</v>
       </c>
       <c r="B198" t="n">
-        <v>130333</v>
+        <v>161042</v>
       </c>
       <c r="C198" t="s">
         <v>1632</v>
@@ -23535,7 +23535,7 @@
         <v>29564</v>
       </c>
       <c r="B199" t="n">
-        <v>130334</v>
+        <v>161043</v>
       </c>
       <c r="C199" t="s">
         <v>1640</v>
@@ -23606,7 +23606,7 @@
         <v>29564</v>
       </c>
       <c r="B200" t="n">
-        <v>130335</v>
+        <v>161044</v>
       </c>
       <c r="C200" t="s">
         <v>1649</v>
@@ -23675,7 +23675,7 @@
         <v>29564</v>
       </c>
       <c r="B201" t="n">
-        <v>130336</v>
+        <v>161045</v>
       </c>
       <c r="C201" t="s">
         <v>1659</v>
@@ -23805,7 +23805,7 @@
         <v>29564</v>
       </c>
       <c r="B203" t="n">
-        <v>130337</v>
+        <v>161046</v>
       </c>
       <c r="C203" t="s">
         <v>1675</v>
@@ -23876,7 +23876,7 @@
         <v>29564</v>
       </c>
       <c r="B204" t="n">
-        <v>130338</v>
+        <v>161047</v>
       </c>
       <c r="C204" t="s">
         <v>1685</v>
@@ -23945,7 +23945,7 @@
         <v>29564</v>
       </c>
       <c r="B205" t="n">
-        <v>130339</v>
+        <v>161048</v>
       </c>
       <c r="C205" t="s">
         <v>1692</v>
@@ -24016,7 +24016,7 @@
         <v>29564</v>
       </c>
       <c r="B206" t="n">
-        <v>130340</v>
+        <v>161049</v>
       </c>
       <c r="C206" t="s">
         <v>1701</v>
@@ -24085,7 +24085,7 @@
         <v>29564</v>
       </c>
       <c r="B207" t="n">
-        <v>130341</v>
+        <v>161050</v>
       </c>
       <c r="C207" t="s">
         <v>1711</v>
@@ -24156,7 +24156,7 @@
         <v>29564</v>
       </c>
       <c r="B208" t="n">
-        <v>130342</v>
+        <v>161051</v>
       </c>
       <c r="C208" t="s">
         <v>1720</v>
@@ -24227,7 +24227,7 @@
         <v>29564</v>
       </c>
       <c r="B209" t="n">
-        <v>130343</v>
+        <v>161052</v>
       </c>
       <c r="C209" t="s">
         <v>1727</v>
@@ -24298,7 +24298,7 @@
         <v>29564</v>
       </c>
       <c r="B210" t="n">
-        <v>130328</v>
+        <v>130221</v>
       </c>
       <c r="C210" t="s">
         <v>1557</v>
@@ -24369,7 +24369,7 @@
         <v>29564</v>
       </c>
       <c r="B211" t="n">
-        <v>130344</v>
+        <v>161053</v>
       </c>
       <c r="C211" t="s">
         <v>1745</v>
@@ -24440,7 +24440,7 @@
         <v>29564</v>
       </c>
       <c r="B212" t="n">
-        <v>130345</v>
+        <v>161054</v>
       </c>
       <c r="C212" t="s">
         <v>1752</v>
@@ -24511,7 +24511,7 @@
         <v>29564</v>
       </c>
       <c r="B213" t="n">
-        <v>130346</v>
+        <v>161055</v>
       </c>
       <c r="C213" t="s">
         <v>1761</v>
@@ -24582,7 +24582,7 @@
         <v>29564</v>
       </c>
       <c r="B214" t="n">
-        <v>130347</v>
+        <v>161056</v>
       </c>
       <c r="C214" t="s">
         <v>1771</v>
@@ -24647,7 +24647,7 @@
         <v>29564</v>
       </c>
       <c r="B215" t="n">
-        <v>130348</v>
+        <v>161057</v>
       </c>
       <c r="C215" t="s">
         <v>1780</v>
@@ -24712,7 +24712,7 @@
         <v>29564</v>
       </c>
       <c r="B216" t="n">
-        <v>130349</v>
+        <v>161058</v>
       </c>
       <c r="C216" t="s">
         <v>1790</v>
@@ -24990,7 +24990,7 @@
         <v>29564</v>
       </c>
       <c r="B220" t="n">
-        <v>130350</v>
+        <v>161059</v>
       </c>
       <c r="C220" t="s">
         <v>1826</v>
@@ -25059,7 +25059,7 @@
         <v>29564</v>
       </c>
       <c r="B221" t="n">
-        <v>130351</v>
+        <v>161060</v>
       </c>
       <c r="C221" t="s">
         <v>1835</v>
@@ -25209,7 +25209,7 @@
         <v>29564</v>
       </c>
       <c r="B223" t="n">
-        <v>130328</v>
+        <v>130221</v>
       </c>
       <c r="C223" t="s">
         <v>1557</v>
@@ -25278,7 +25278,7 @@
         <v>29564</v>
       </c>
       <c r="B224" t="n">
-        <v>130352</v>
+        <v>161061</v>
       </c>
       <c r="C224" t="s">
         <v>1862</v>
@@ -25353,7 +25353,7 @@
         <v>29564</v>
       </c>
       <c r="B225" t="n">
-        <v>130353</v>
+        <v>161062</v>
       </c>
       <c r="C225" t="s">
         <v>1871</v>
@@ -25420,7 +25420,7 @@
         <v>29564</v>
       </c>
       <c r="B226" t="n">
-        <v>130354</v>
+        <v>161063</v>
       </c>
       <c r="C226" t="s">
         <v>1877</v>
@@ -25487,7 +25487,7 @@
         <v>29564</v>
       </c>
       <c r="B227" t="n">
-        <v>130355</v>
+        <v>161064</v>
       </c>
       <c r="C227" t="s">
         <v>1884</v>
@@ -25627,7 +25627,7 @@
         <v>29564</v>
       </c>
       <c r="B229" t="n">
-        <v>130356</v>
+        <v>161065</v>
       </c>
       <c r="C229" t="s">
         <v>1901</v>
@@ -25698,7 +25698,7 @@
         <v>29564</v>
       </c>
       <c r="B230" t="n">
-        <v>130357</v>
+        <v>161066</v>
       </c>
       <c r="C230" t="s">
         <v>1910</v>
@@ -25773,7 +25773,7 @@
         <v>29564</v>
       </c>
       <c r="B231" t="n">
-        <v>130358</v>
+        <v>161067</v>
       </c>
       <c r="C231" t="s">
         <v>1917</v>
@@ -25848,7 +25848,7 @@
         <v>29564</v>
       </c>
       <c r="B232" t="n">
-        <v>130359</v>
+        <v>161068</v>
       </c>
       <c r="C232" t="s">
         <v>1924</v>
@@ -25988,7 +25988,7 @@
         <v>29564</v>
       </c>
       <c r="B234" t="n">
-        <v>130360</v>
+        <v>161069</v>
       </c>
       <c r="C234" t="s">
         <v>1943</v>
@@ -26059,7 +26059,7 @@
         <v>29564</v>
       </c>
       <c r="B235" t="n">
-        <v>130361</v>
+        <v>161070</v>
       </c>
       <c r="C235" t="s">
         <v>1951</v>
@@ -26199,7 +26199,7 @@
         <v>29564</v>
       </c>
       <c r="B237" t="n">
-        <v>130362</v>
+        <v>161071</v>
       </c>
       <c r="C237" t="s">
         <v>1969</v>
@@ -26274,7 +26274,7 @@
         <v>29564</v>
       </c>
       <c r="B238" t="n">
-        <v>130363</v>
+        <v>161072</v>
       </c>
       <c r="C238" t="s">
         <v>1979</v>
@@ -26499,7 +26499,7 @@
         <v>29564</v>
       </c>
       <c r="B241" t="n">
-        <v>130364</v>
+        <v>161073</v>
       </c>
       <c r="C241" t="s">
         <v>2002</v>
@@ -26724,7 +26724,7 @@
         <v>29564</v>
       </c>
       <c r="B244" t="n">
-        <v>130365</v>
+        <v>161074</v>
       </c>
       <c r="C244" t="s">
         <v>2027</v>
@@ -26799,7 +26799,7 @@
         <v>29564</v>
       </c>
       <c r="B245" t="n">
-        <v>130366</v>
+        <v>161075</v>
       </c>
       <c r="C245" t="s">
         <v>2034</v>
@@ -26874,7 +26874,7 @@
         <v>29564</v>
       </c>
       <c r="B246" t="n">
-        <v>130367</v>
+        <v>161076</v>
       </c>
       <c r="C246" t="s">
         <v>2044</v>
@@ -26949,7 +26949,7 @@
         <v>29564</v>
       </c>
       <c r="B247" t="n">
-        <v>130368</v>
+        <v>161077</v>
       </c>
       <c r="C247" t="s">
         <v>2051</v>
@@ -27024,7 +27024,7 @@
         <v>29564</v>
       </c>
       <c r="B248" t="n">
-        <v>130369</v>
+        <v>161078</v>
       </c>
       <c r="C248" t="s">
         <v>2060</v>
@@ -27099,7 +27099,7 @@
         <v>29564</v>
       </c>
       <c r="B249" t="n">
-        <v>130370</v>
+        <v>161079</v>
       </c>
       <c r="C249" t="s">
         <v>2069</v>
@@ -27249,7 +27249,7 @@
         <v>29564</v>
       </c>
       <c r="B251" t="n">
-        <v>130371</v>
+        <v>161080</v>
       </c>
       <c r="C251" t="s">
         <v>2085</v>
@@ -27399,7 +27399,7 @@
         <v>29564</v>
       </c>
       <c r="B253" t="n">
-        <v>130372</v>
+        <v>161081</v>
       </c>
       <c r="C253" t="s">
         <v>2102</v>
@@ -27620,7 +27620,7 @@
         <v>29564</v>
       </c>
       <c r="B256" t="n">
-        <v>130373</v>
+        <v>161082</v>
       </c>
       <c r="C256" t="s">
         <v>2124</v>
@@ -27685,7 +27685,7 @@
         <v>29564</v>
       </c>
       <c r="B257" t="n">
-        <v>130374</v>
+        <v>161083</v>
       </c>
       <c r="C257" t="s">
         <v>2133</v>
@@ -27752,7 +27752,7 @@
         <v>29564</v>
       </c>
       <c r="B258" t="n">
-        <v>130375</v>
+        <v>161084</v>
       </c>
       <c r="C258" t="s">
         <v>2139</v>
@@ -27823,7 +27823,7 @@
         <v>29564</v>
       </c>
       <c r="B259" t="n">
-        <v>130376</v>
+        <v>161085</v>
       </c>
       <c r="C259" t="s">
         <v>2146</v>
@@ -27884,7 +27884,7 @@
         <v>29564</v>
       </c>
       <c r="B260" t="n">
-        <v>130377</v>
+        <v>161086</v>
       </c>
       <c r="C260" t="s">
         <v>2151</v>
@@ -28105,7 +28105,7 @@
         <v>29564</v>
       </c>
       <c r="B263" t="n">
-        <v>130378</v>
+        <v>161087</v>
       </c>
       <c r="C263" t="s">
         <v>2175</v>
@@ -28166,7 +28166,7 @@
         <v>29564</v>
       </c>
       <c r="B264" t="n">
-        <v>130379</v>
+        <v>161088</v>
       </c>
       <c r="C264" t="s">
         <v>2181</v>
@@ -28316,7 +28316,7 @@
         <v>29564</v>
       </c>
       <c r="B266" t="n">
-        <v>130380</v>
+        <v>161089</v>
       </c>
       <c r="C266" t="s">
         <v>2196</v>
@@ -28462,7 +28462,7 @@
         <v>29564</v>
       </c>
       <c r="B268" t="n">
-        <v>130381</v>
+        <v>161090</v>
       </c>
       <c r="C268" t="s">
         <v>2211</v>
@@ -28537,7 +28537,7 @@
         <v>29564</v>
       </c>
       <c r="B269" t="n">
-        <v>130382</v>
+        <v>161091</v>
       </c>
       <c r="C269" t="s">
         <v>2221</v>
@@ -28608,7 +28608,7 @@
         <v>29564</v>
       </c>
       <c r="B270" t="n">
-        <v>130383</v>
+        <v>161092</v>
       </c>
       <c r="C270" t="s">
         <v>2227</v>
@@ -28683,7 +28683,7 @@
         <v>29564</v>
       </c>
       <c r="B271" t="n">
-        <v>130384</v>
+        <v>161093</v>
       </c>
       <c r="C271" t="s">
         <v>2233</v>
@@ -28750,7 +28750,7 @@
         <v>29564</v>
       </c>
       <c r="B272" t="n">
-        <v>130385</v>
+        <v>161094</v>
       </c>
       <c r="C272" t="s">
         <v>2239</v>
@@ -28825,7 +28825,7 @@
         <v>29564</v>
       </c>
       <c r="B273" t="n">
-        <v>130386</v>
+        <v>161095</v>
       </c>
       <c r="C273" t="s">
         <v>2249</v>
@@ -28886,7 +28886,7 @@
         <v>29564</v>
       </c>
       <c r="B274" t="n">
-        <v>130387</v>
+        <v>161096</v>
       </c>
       <c r="C274" t="s">
         <v>2256</v>
@@ -28953,7 +28953,7 @@
         <v>29564</v>
       </c>
       <c r="B275" t="n">
-        <v>130388</v>
+        <v>161097</v>
       </c>
       <c r="C275" t="s">
         <v>2262</v>
@@ -29095,7 +29095,7 @@
         <v>29564</v>
       </c>
       <c r="B277" t="n">
-        <v>130389</v>
+        <v>161098</v>
       </c>
       <c r="C277" t="s">
         <v>2276</v>
@@ -29162,7 +29162,7 @@
         <v>29564</v>
       </c>
       <c r="B278" t="n">
-        <v>130390</v>
+        <v>161099</v>
       </c>
       <c r="C278" t="s">
         <v>2282</v>
@@ -29233,7 +29233,7 @@
         <v>29564</v>
       </c>
       <c r="B279" t="n">
-        <v>130391</v>
+        <v>161100</v>
       </c>
       <c r="C279" t="s">
         <v>2289</v>
@@ -29304,7 +29304,7 @@
         <v>29564</v>
       </c>
       <c r="B280" t="n">
-        <v>130392</v>
+        <v>161101</v>
       </c>
       <c r="C280" t="s">
         <v>2297</v>
@@ -29375,7 +29375,7 @@
         <v>29564</v>
       </c>
       <c r="B281" t="n">
-        <v>130393</v>
+        <v>161102</v>
       </c>
       <c r="C281" t="s">
         <v>2304</v>
@@ -29446,7 +29446,7 @@
         <v>29564</v>
       </c>
       <c r="B282" t="n">
-        <v>130394</v>
+        <v>161103</v>
       </c>
       <c r="C282" t="s">
         <v>2310</v>
@@ -29517,7 +29517,7 @@
         <v>29564</v>
       </c>
       <c r="B283" t="n">
-        <v>130395</v>
+        <v>161104</v>
       </c>
       <c r="C283" t="s">
         <v>2316</v>
@@ -29659,7 +29659,7 @@
         <v>29564</v>
       </c>
       <c r="B285" t="n">
-        <v>130396</v>
+        <v>161105</v>
       </c>
       <c r="C285" t="s">
         <v>2332</v>
@@ -29730,7 +29730,7 @@
         <v>29564</v>
       </c>
       <c r="B286" t="n">
-        <v>130397</v>
+        <v>161106</v>
       </c>
       <c r="C286" t="s">
         <v>2338</v>
@@ -29801,7 +29801,7 @@
         <v>29564</v>
       </c>
       <c r="B287" t="n">
-        <v>130398</v>
+        <v>161107</v>
       </c>
       <c r="C287" t="s">
         <v>2344</v>
@@ -29872,7 +29872,7 @@
         <v>29564</v>
       </c>
       <c r="B288" t="n">
-        <v>130399</v>
+        <v>161108</v>
       </c>
       <c r="C288" t="s">
         <v>2353</v>
@@ -29933,7 +29933,7 @@
         <v>29564</v>
       </c>
       <c r="B289" t="n">
-        <v>130400</v>
+        <v>161109</v>
       </c>
       <c r="C289" t="s">
         <v>2359</v>
@@ -30004,7 +30004,7 @@
         <v>29564</v>
       </c>
       <c r="B290" t="n">
-        <v>130401</v>
+        <v>161110</v>
       </c>
       <c r="C290" t="s">
         <v>2366</v>
@@ -30075,7 +30075,7 @@
         <v>29564</v>
       </c>
       <c r="B291" t="n">
-        <v>130402</v>
+        <v>161111</v>
       </c>
       <c r="C291" t="s">
         <v>2374</v>
@@ -30150,7 +30150,7 @@
         <v>29564</v>
       </c>
       <c r="B292" t="n">
-        <v>130403</v>
+        <v>161112</v>
       </c>
       <c r="C292" t="s">
         <v>2382</v>
@@ -30225,7 +30225,7 @@
         <v>29564</v>
       </c>
       <c r="B293" t="n">
-        <v>130404</v>
+        <v>161113</v>
       </c>
       <c r="C293" t="s">
         <v>2391</v>
@@ -30367,7 +30367,7 @@
         <v>29564</v>
       </c>
       <c r="B295" t="n">
-        <v>130405</v>
+        <v>161114</v>
       </c>
       <c r="C295" t="s">
         <v>2403</v>
@@ -30442,7 +30442,7 @@
         <v>29564</v>
       </c>
       <c r="B296" t="n">
-        <v>130406</v>
+        <v>161115</v>
       </c>
       <c r="C296" t="s">
         <v>2412</v>
@@ -30513,7 +30513,7 @@
         <v>29564</v>
       </c>
       <c r="B297" t="n">
-        <v>130407</v>
+        <v>161116</v>
       </c>
       <c r="C297" t="s">
         <v>2420</v>
@@ -30663,7 +30663,7 @@
         <v>29564</v>
       </c>
       <c r="B299" t="n">
-        <v>130408</v>
+        <v>161117</v>
       </c>
       <c r="C299" t="s">
         <v>2439</v>
@@ -30738,7 +30738,7 @@
         <v>29564</v>
       </c>
       <c r="B300" t="n">
-        <v>130409</v>
+        <v>161118</v>
       </c>
       <c r="C300" t="s">
         <v>2449</v>
@@ -30809,7 +30809,7 @@
         <v>29564</v>
       </c>
       <c r="B301" t="n">
-        <v>130410</v>
+        <v>161119</v>
       </c>
       <c r="C301" t="s">
         <v>2457</v>
@@ -30951,7 +30951,7 @@
         <v>29564</v>
       </c>
       <c r="B303" t="n">
-        <v>130411</v>
+        <v>161120</v>
       </c>
       <c r="C303" t="s">
         <v>2472</v>
@@ -31022,7 +31022,7 @@
         <v>29564</v>
       </c>
       <c r="B304" t="n">
-        <v>130412</v>
+        <v>161121</v>
       </c>
       <c r="C304" t="s">
         <v>2479</v>
@@ -31160,7 +31160,7 @@
         <v>29564</v>
       </c>
       <c r="B306" t="n">
-        <v>130413</v>
+        <v>161122</v>
       </c>
       <c r="C306" t="s">
         <v>2490</v>
@@ -31302,7 +31302,7 @@
         <v>29564</v>
       </c>
       <c r="B308" t="n">
-        <v>130414</v>
+        <v>161123</v>
       </c>
       <c r="C308" t="s">
         <v>2502</v>
@@ -31373,7 +31373,7 @@
         <v>29564</v>
       </c>
       <c r="B309" t="n">
-        <v>130415</v>
+        <v>161124</v>
       </c>
       <c r="C309" t="s">
         <v>2509</v>
@@ -31444,7 +31444,7 @@
         <v>29564</v>
       </c>
       <c r="B310" t="n">
-        <v>130416</v>
+        <v>161125</v>
       </c>
       <c r="C310" t="s">
         <v>2517</v>
@@ -31515,7 +31515,7 @@
         <v>29564</v>
       </c>
       <c r="B311" t="n">
-        <v>130417</v>
+        <v>161126</v>
       </c>
       <c r="C311" t="s">
         <v>2525</v>
@@ -31653,7 +31653,7 @@
         <v>29564</v>
       </c>
       <c r="B313" t="n">
-        <v>130418</v>
+        <v>161127</v>
       </c>
       <c r="C313" t="s">
         <v>2538</v>
@@ -31720,7 +31720,7 @@
         <v>29564</v>
       </c>
       <c r="B314" t="n">
-        <v>130419</v>
+        <v>161128</v>
       </c>
       <c r="C314" t="s">
         <v>2544</v>
@@ -31787,7 +31787,7 @@
         <v>29564</v>
       </c>
       <c r="B315" t="n">
-        <v>130420</v>
+        <v>161129</v>
       </c>
       <c r="C315" t="s">
         <v>2551</v>
@@ -31854,7 +31854,7 @@
         <v>29564</v>
       </c>
       <c r="B316" t="n">
-        <v>130421</v>
+        <v>161130</v>
       </c>
       <c r="C316" t="s">
         <v>2558</v>
@@ -31925,7 +31925,7 @@
         <v>29564</v>
       </c>
       <c r="B317" t="n">
-        <v>130422</v>
+        <v>161131</v>
       </c>
       <c r="C317" t="s">
         <v>2565</v>
@@ -31996,7 +31996,7 @@
         <v>29564</v>
       </c>
       <c r="B318" t="n">
-        <v>130423</v>
+        <v>161132</v>
       </c>
       <c r="C318" t="s">
         <v>2573</v>
@@ -32067,7 +32067,7 @@
         <v>29564</v>
       </c>
       <c r="B319" t="n">
-        <v>130424</v>
+        <v>161133</v>
       </c>
       <c r="C319" t="s">
         <v>2579</v>
@@ -32138,7 +32138,7 @@
         <v>29564</v>
       </c>
       <c r="B320" t="n">
-        <v>130425</v>
+        <v>161134</v>
       </c>
       <c r="C320" t="s">
         <v>2586</v>
@@ -32209,7 +32209,7 @@
         <v>29564</v>
       </c>
       <c r="B321" t="n">
-        <v>130426</v>
+        <v>161135</v>
       </c>
       <c r="C321" t="s">
         <v>2593</v>
@@ -32276,7 +32276,7 @@
         <v>29564</v>
       </c>
       <c r="B322" t="n">
-        <v>130427</v>
+        <v>161136</v>
       </c>
       <c r="C322" t="s">
         <v>2599</v>
@@ -32347,7 +32347,7 @@
         <v>29564</v>
       </c>
       <c r="B323" t="n">
-        <v>130428</v>
+        <v>161137</v>
       </c>
       <c r="C323" t="s">
         <v>2606</v>
@@ -32418,7 +32418,7 @@
         <v>29564</v>
       </c>
       <c r="B324" t="n">
-        <v>130429</v>
+        <v>161138</v>
       </c>
       <c r="C324" t="s">
         <v>2613</v>
@@ -32489,7 +32489,7 @@
         <v>29564</v>
       </c>
       <c r="B325" t="n">
-        <v>130430</v>
+        <v>161139</v>
       </c>
       <c r="C325" t="s">
         <v>2620</v>
@@ -32560,7 +32560,7 @@
         <v>29564</v>
       </c>
       <c r="B326" t="n">
-        <v>130431</v>
+        <v>161140</v>
       </c>
       <c r="C326" t="s">
         <v>2628</v>
@@ -32631,7 +32631,7 @@
         <v>29564</v>
       </c>
       <c r="B327" t="n">
-        <v>130432</v>
+        <v>161141</v>
       </c>
       <c r="C327" t="s">
         <v>2634</v>
@@ -32702,7 +32702,7 @@
         <v>29564</v>
       </c>
       <c r="B328" t="n">
-        <v>130433</v>
+        <v>161142</v>
       </c>
       <c r="C328" t="s">
         <v>2641</v>
@@ -32769,7 +32769,7 @@
         <v>29564</v>
       </c>
       <c r="B329" t="n">
-        <v>130434</v>
+        <v>161143</v>
       </c>
       <c r="C329" t="s">
         <v>2648</v>
@@ -32840,7 +32840,7 @@
         <v>29564</v>
       </c>
       <c r="B330" t="n">
-        <v>130435</v>
+        <v>161144</v>
       </c>
       <c r="C330" t="s">
         <v>2656</v>
@@ -32911,7 +32911,7 @@
         <v>29564</v>
       </c>
       <c r="B331" t="n">
-        <v>130436</v>
+        <v>161145</v>
       </c>
       <c r="C331" t="s">
         <v>2663</v>
@@ -32982,7 +32982,7 @@
         <v>29564</v>
       </c>
       <c r="B332" t="n">
-        <v>130437</v>
+        <v>161146</v>
       </c>
       <c r="C332" t="s">
         <v>2671</v>
@@ -33128,7 +33128,7 @@
         <v>29564</v>
       </c>
       <c r="B334" t="n">
-        <v>130438</v>
+        <v>161147</v>
       </c>
       <c r="C334" t="s">
         <v>2689</v>
@@ -33203,7 +33203,7 @@
         <v>29564</v>
       </c>
       <c r="B335" t="n">
-        <v>130439</v>
+        <v>161148</v>
       </c>
       <c r="C335" t="s">
         <v>2699</v>
@@ -33268,7 +33268,7 @@
         <v>29564</v>
       </c>
       <c r="B336" t="n">
-        <v>130440</v>
+        <v>161149</v>
       </c>
       <c r="C336" t="s">
         <v>2709</v>
@@ -33333,7 +33333,7 @@
         <v>29564</v>
       </c>
       <c r="B337" t="n">
-        <v>130441</v>
+        <v>161150</v>
       </c>
       <c r="C337" t="s">
         <v>2719</v>
@@ -33408,7 +33408,7 @@
         <v>29564</v>
       </c>
       <c r="B338" t="n">
-        <v>130442</v>
+        <v>161151</v>
       </c>
       <c r="C338" t="s">
         <v>2729</v>
@@ -33483,7 +33483,7 @@
         <v>29564</v>
       </c>
       <c r="B339" t="n">
-        <v>130443</v>
+        <v>161152</v>
       </c>
       <c r="C339" t="s">
         <v>2739</v>
@@ -33554,7 +33554,7 @@
         <v>29564</v>
       </c>
       <c r="B340" t="n">
-        <v>130444</v>
+        <v>161153</v>
       </c>
       <c r="C340" t="s">
         <v>2747</v>
@@ -33686,7 +33686,7 @@
         <v>29564</v>
       </c>
       <c r="B342" t="n">
-        <v>130445</v>
+        <v>161154</v>
       </c>
       <c r="C342" t="s">
         <v>2762</v>
@@ -33743,7 +33743,7 @@
         <v>29564</v>
       </c>
       <c r="B343" t="n">
-        <v>130446</v>
+        <v>161155</v>
       </c>
       <c r="C343" t="s">
         <v>2769</v>
@@ -33814,7 +33814,7 @@
         <v>29564</v>
       </c>
       <c r="B344" t="n">
-        <v>130447</v>
+        <v>161156</v>
       </c>
       <c r="C344" t="s">
         <v>2777</v>
@@ -33885,7 +33885,7 @@
         <v>29564</v>
       </c>
       <c r="B345" t="n">
-        <v>130448</v>
+        <v>161157</v>
       </c>
       <c r="C345" t="s">
         <v>2785</v>
@@ -33956,7 +33956,7 @@
         <v>29564</v>
       </c>
       <c r="B346" t="n">
-        <v>130449</v>
+        <v>161158</v>
       </c>
       <c r="C346" t="s">
         <v>2792</v>
@@ -34027,7 +34027,7 @@
         <v>29564</v>
       </c>
       <c r="B347" t="n">
-        <v>130450</v>
+        <v>161159</v>
       </c>
       <c r="C347" t="s">
         <v>2800</v>
@@ -34098,7 +34098,7 @@
         <v>29564</v>
       </c>
       <c r="B348" t="n">
-        <v>130451</v>
+        <v>161160</v>
       </c>
       <c r="C348" t="s">
         <v>2808</v>
@@ -34169,7 +34169,7 @@
         <v>29564</v>
       </c>
       <c r="B349" t="n">
-        <v>130452</v>
+        <v>161161</v>
       </c>
       <c r="C349" t="s">
         <v>2814</v>
@@ -34291,7 +34291,7 @@
         <v>29564</v>
       </c>
       <c r="B351" t="n">
-        <v>130453</v>
+        <v>161162</v>
       </c>
       <c r="C351" t="s">
         <v>2827</v>
@@ -34360,7 +34360,7 @@
         <v>29564</v>
       </c>
       <c r="B352" t="n">
-        <v>130454</v>
+        <v>161163</v>
       </c>
       <c r="C352" t="s">
         <v>2835</v>
@@ -34486,7 +34486,7 @@
         <v>29564</v>
       </c>
       <c r="B354" t="n">
-        <v>130455</v>
+        <v>161164</v>
       </c>
       <c r="C354" t="s">
         <v>2848</v>
@@ -34551,7 +34551,7 @@
         <v>29564</v>
       </c>
       <c r="B355" t="n">
-        <v>130456</v>
+        <v>161165</v>
       </c>
       <c r="C355" t="s">
         <v>2855</v>
@@ -34673,7 +34673,7 @@
         <v>29564</v>
       </c>
       <c r="B357" t="n">
-        <v>130457</v>
+        <v>161166</v>
       </c>
       <c r="C357" t="s">
         <v>2867</v>
@@ -34742,7 +34742,7 @@
         <v>29564</v>
       </c>
       <c r="B358" t="n">
-        <v>130458</v>
+        <v>161167</v>
       </c>
       <c r="C358" t="s">
         <v>2874</v>
